--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_18-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_18-06.xlsx
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
   </si>
   <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
@@ -2201,13 +2204,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>26</v>
+        <v>30.09</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2227,13 +2230,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2253,17 +2256,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2271,7 +2274,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2279,17 +2282,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>22.5</v>
+        <v>17</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2297,7 +2300,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2305,17 +2308,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>63</v>
+        <v>22.5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2331,13 +2334,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2357,17 +2360,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2383,17 +2386,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2401,7 +2404,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2409,17 +2412,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2427,7 +2430,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2435,17 +2438,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2461,13 +2464,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2479,7 +2482,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2487,13 +2490,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2513,13 +2516,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2531,7 +2534,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2539,13 +2542,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2553,37 +2556,63 @@
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
-      <c r="K68" s="10">
-        <v>3991.6500000000001</v>
-      </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" ht="17.25" customHeight="1">
-      <c t="s" r="A69" s="11">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
         <v>100</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c t="s" r="F69" s="12">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>9</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>20</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="K69" s="10">
+        <v>4021.7399999999998</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="11">
         <v>101</v>
       </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c t="s" r="I69" s="14">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c t="s" r="F70" s="12">
         <v>102</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c t="s" r="I70" s="14">
+        <v>103</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="203">
+  <mergeCells count="206">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2783,10 +2812,13 @@
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:N69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:N70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
